--- a/donnees/AMU2022.xlsx
+++ b/donnees/AMU2022.xlsx
@@ -12,7 +12,7 @@
     <sheet name="données humaines régionales" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'données humaines régionales'!$A$1:$F$42</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'données humaines régionales'!$A$1:$F$40</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="30">
   <si>
     <t xml:space="preserve">population</t>
   </si>
@@ -89,28 +89,28 @@
     <t xml:space="preserve">Hauts-de-France</t>
   </si>
   <si>
+    <t xml:space="preserve">Normandie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occitanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pays de la Loire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Réunion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Martinique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normandie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occitanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pays de la Loire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Réunion</t>
   </si>
   <si>
     <t xml:space="preserve">ville</t>
@@ -207,7 +207,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,6 +226,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -389,8 +393,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -432,7 +436,12 @@
       <c r="D2" s="1" t="n">
         <v>40.5</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1086</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -447,7 +456,12 @@
       <c r="D3" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2114</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -462,7 +476,12 @@
       <c r="D4" s="1" t="n">
         <v>35.3</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1227</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -477,6 +496,12 @@
       <c r="D5" s="1" t="n">
         <v>42.6</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -491,6 +516,12 @@
       <c r="D6" s="1" t="n">
         <v>39.8</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -505,6 +536,12 @@
       <c r="D7" s="1" t="n">
         <v>15.8</v>
       </c>
+      <c r="E7" s="0" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -519,6 +556,12 @@
       <c r="D8" s="1" t="n">
         <v>47.1</v>
       </c>
+      <c r="E8" s="0" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -531,7 +574,13 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>6.6</v>
+        <v>44.7</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2068</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +594,13 @@
         <v>22</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>44.7</v>
+        <v>42.5</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>3201</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,7 +614,13 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>42.5</v>
+        <v>40.4</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>3580</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,7 +634,13 @@
         <v>24</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>40.4</v>
+        <v>34.4</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>3185</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,301 +654,313 @@
         <v>25</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45.3</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>45.3</v>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>335</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>51.1583011583012</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>7252</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>335</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>51.1583011583012</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>7252</v>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>230</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>49.4506821200048</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>8283</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>230</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>49.4506821200048</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>8283</v>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>270</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>44.5190156599553</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>5811</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>270</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>44.5190156599553</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>5811</v>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>261</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>51.7964071856287</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>334</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>261</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>51.7964071856287</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>334</v>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>319</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>45.2873455634594</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>21368</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>319</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>45.2873455634594</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>21368</v>
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>124</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>52.029520295203</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>542</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>124</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>52.029520295203</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>542</v>
+      <c r="C20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>314</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>44.5624195624196</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>12432</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>314</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>44.5624195624196</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>12432</v>
+      <c r="D21" s="6" t="n">
+        <v>287</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>49.4432071269488</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>2694</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>287</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>49.4432071269488</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>2694</v>
+      <c r="D22" s="6" t="n">
+        <v>198</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>42.5287356321839</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>198</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>42.5287356321839</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>174</v>
+      <c r="D23" s="6" t="n">
+        <v>354</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>6875</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="5" t="n">
-        <v>354</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>46.88</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>6875</v>
+      <c r="D24" s="6" t="n">
+        <v>287</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>48.3667504230552</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>19501</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="5" t="n">
-        <v>287</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>48.3667504230552</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>19501</v>
+      <c r="D25" s="6" t="n">
+        <v>283</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>44.8801237432328</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>12930</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="5" t="n">
-        <v>283</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>44.8801237432328</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>12930</v>
+      <c r="D26" s="6" t="n">
+        <v>252</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>48.2111944604732</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>10398</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="5" t="n">
-        <v>252</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>48.2111944604732</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>10398</v>
+      <c r="D27" s="6" t="n">
+        <v>280</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>39.9221255153459</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>13098</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>280</v>
-      </c>
-      <c r="E28" s="6" t="n">
-        <v>39.9221255153459</v>
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>52.7</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>13098</v>
+        <v>23556</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,13 +970,18 @@
       <c r="B29" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>21.47</v>
-      </c>
-      <c r="E29" s="1"/>
+      <c r="C29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>36696</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -906,13 +990,18 @@
       <c r="B30" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="C30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>28798</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -921,13 +1010,18 @@
       <c r="B31" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="E31" s="1"/>
+      <c r="C31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>3223</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -936,11 +1030,17 @@
       <c r="B32" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>27</v>
+      <c r="C32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>87675</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,11 +1050,17 @@
       <c r="B33" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>21.8</v>
+      <c r="C33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>5301</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,11 +1070,17 @@
       <c r="B34" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>15.73</v>
+      <c r="C34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>29212</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,11 +1090,17 @@
       <c r="B35" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>24.2</v>
+      <c r="C35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>7682</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,11 +1110,17 @@
       <c r="B36" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="5" t="n">
-        <v>18.89</v>
+      <c r="C36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>46214</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,11 +1130,17 @@
       <c r="B37" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>16.7</v>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>47937</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1020,11 +1150,17 @@
       <c r="B38" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="5" t="n">
-        <v>22.54</v>
+      <c r="C38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>73388</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,11 +1170,17 @@
       <c r="B39" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="5" t="n">
-        <v>22.14</v>
+      <c r="C39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>40599</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,44 +1190,24 @@
       <c r="B40" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="5" t="n">
-        <v>21.99</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="5" t="n">
-        <v>17.26</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="5" t="n">
+      <c r="D40" s="6" t="n">
         <v>25.25</v>
       </c>
-    </row>
+      <c r="E40" s="5" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>87656</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F42"/>
+  <autoFilter ref="A1:F40"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/donnees/AMU2022.xlsx
+++ b/donnees/AMU2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="données animales nationales" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
   <si>
     <t xml:space="preserve">population</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t xml:space="preserve">Volailles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcs-abattoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bovins-abattoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volailles-abattoir</t>
   </si>
   <si>
     <t xml:space="preserve">region</t>
@@ -207,7 +216,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -222,6 +231,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -279,10 +292,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -319,6 +332,12 @@
       <c r="C2" s="1" t="n">
         <v>0.254</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>38.64</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>2242</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -330,6 +349,12 @@
       <c r="C3" s="1" t="n">
         <v>0.727</v>
       </c>
+      <c r="D3" s="1" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1824</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -341,8 +366,14 @@
       <c r="C4" s="1" t="n">
         <v>0.253</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="1" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -352,8 +383,14 @@
       <c r="C5" s="1" t="n">
         <v>1.144</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -363,8 +400,14 @@
       <c r="C6" s="1" t="n">
         <v>0.363</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -373,6 +416,63 @@
       </c>
       <c r="C7" s="1" t="n">
         <v>0.283</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>61.78</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>42.63</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>49.465</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -393,8 +493,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -404,34 +504,34 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>40.5</v>
@@ -439,19 +539,19 @@
       <c r="E2" s="1" t="n">
         <v>48.3</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>1086</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>39</v>
@@ -459,19 +559,19 @@
       <c r="E3" s="1" t="n">
         <v>44.3</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>35.3</v>
@@ -479,104 +579,104 @@
       <c r="E4" s="1" t="n">
         <v>44.9</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>1227</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>42.6</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>28.4</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>39.8</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>48.2</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>3300</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>15.8</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>46.2</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>47.1</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>40.2</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>2015</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>44.7</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="6" t="n">
         <v>44.7</v>
       </c>
       <c r="F9" s="1" t="n">
@@ -585,18 +685,18 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>42.5</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="6" t="n">
         <v>40.3</v>
       </c>
       <c r="F10" s="1" t="n">
@@ -605,18 +705,18 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>40.4</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="6" t="n">
         <v>40.7</v>
       </c>
       <c r="F11" s="1" t="n">
@@ -625,18 +725,18 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>34.4</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="6" t="n">
         <v>51.9</v>
       </c>
       <c r="F12" s="1" t="n">
@@ -645,18 +745,18 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>45.3</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="6" t="n">
         <v>34.2</v>
       </c>
       <c r="F13" s="1" t="n">
@@ -665,18 +765,18 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6" t="n">
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7" t="n">
         <v>335</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="8" t="n">
         <v>51.1583011583012</v>
       </c>
       <c r="F14" s="1" t="n">
@@ -685,18 +785,18 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="6" t="n">
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7" t="n">
         <v>230</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="8" t="n">
         <v>49.4506821200048</v>
       </c>
       <c r="F15" s="1" t="n">
@@ -705,18 +805,18 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="6" t="n">
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7" t="n">
         <v>270</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="8" t="n">
         <v>44.5190156599553</v>
       </c>
       <c r="F16" s="1" t="n">
@@ -725,18 +825,18 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6" t="n">
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7" t="n">
         <v>261</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="8" t="n">
         <v>51.7964071856287</v>
       </c>
       <c r="F17" s="1" t="n">
@@ -745,18 +845,18 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6" t="n">
+      <c r="C18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7" t="n">
         <v>319</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="8" t="n">
         <v>45.2873455634594</v>
       </c>
       <c r="F18" s="1" t="n">
@@ -765,18 +865,18 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="6" t="n">
+      <c r="C19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="7" t="n">
         <v>124</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="8" t="n">
         <v>52.029520295203</v>
       </c>
       <c r="F19" s="1" t="n">
@@ -785,18 +885,18 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="6" t="n">
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7" t="n">
         <v>314</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="8" t="n">
         <v>44.5624195624196</v>
       </c>
       <c r="F20" s="1" t="n">
@@ -805,18 +905,18 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="6" t="n">
+      <c r="C21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="n">
         <v>287</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="8" t="n">
         <v>49.4432071269488</v>
       </c>
       <c r="F21" s="1" t="n">
@@ -825,18 +925,18 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="6" t="n">
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="7" t="n">
         <v>198</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="8" t="n">
         <v>42.5287356321839</v>
       </c>
       <c r="F22" s="1" t="n">
@@ -845,18 +945,18 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="6" t="n">
+      <c r="C23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="7" t="n">
         <v>354</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="8" t="n">
         <v>46.88</v>
       </c>
       <c r="F23" s="1" t="n">
@@ -865,18 +965,18 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7" t="n">
         <v>287</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="8" t="n">
         <v>48.3667504230552</v>
       </c>
       <c r="F24" s="1" t="n">
@@ -885,18 +985,18 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="7" t="n">
         <v>283</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="8" t="n">
         <v>44.8801237432328</v>
       </c>
       <c r="F25" s="1" t="n">
@@ -905,18 +1005,18 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="6" t="n">
+      <c r="C26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="7" t="n">
         <v>252</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="8" t="n">
         <v>48.2111944604732</v>
       </c>
       <c r="F26" s="1" t="n">
@@ -925,18 +1025,18 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="6" t="n">
+      <c r="C27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="7" t="n">
         <v>280</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="8" t="n">
         <v>39.9221255153459</v>
       </c>
       <c r="F27" s="1" t="n">
@@ -945,178 +1045,178 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="6" t="n">
+      <c r="C28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="7" t="n">
         <v>21.47</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>52.7</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <v>23556</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="6" t="n">
+      <c r="C29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="7" t="n">
         <v>19.07</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>54.2</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>36696</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="6" t="n">
+      <c r="C30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7" t="n">
         <v>19.93</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>54.4</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <v>28798</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="6" t="n">
+      <c r="C31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>56.3</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <v>3223</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="6" t="n">
+      <c r="C32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="7" t="n">
         <v>21.8</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>53.4</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="1" t="n">
         <v>87675</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="6" t="n">
+      <c r="C33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="7" t="n">
         <v>15.73</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>55.9</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="1" t="n">
         <v>5301</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="6" t="n">
+      <c r="C34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="7" t="n">
         <v>24.2</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>52.7</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="1" t="n">
         <v>29212</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="6" t="n">
+      <c r="C35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="7" t="n">
         <v>18.89</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>61.1</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <v>7682</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="6" t="n">
+      <c r="C36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="7" t="n">
         <v>22.54</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="6" t="n">
         <v>51.9</v>
       </c>
       <c r="F36" s="1" t="n">
@@ -1125,18 +1225,18 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D37" s="7" t="n">
         <v>22.14</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="6" t="n">
         <v>45.9</v>
       </c>
       <c r="F37" s="1" t="n">
@@ -1145,18 +1245,18 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="6" t="n">
+      <c r="C38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="7" t="n">
         <v>21.99</v>
       </c>
-      <c r="E38" s="5" t="n">
+      <c r="E38" s="6" t="n">
         <v>50.7</v>
       </c>
       <c r="F38" s="1" t="n">
@@ -1165,18 +1265,18 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="6" t="n">
+      <c r="C39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="7" t="n">
         <v>17.26</v>
       </c>
-      <c r="E39" s="5" t="n">
+      <c r="E39" s="6" t="n">
         <v>55.7</v>
       </c>
       <c r="F39" s="1" t="n">
@@ -1185,18 +1285,18 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="6" t="n">
+      <c r="C40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="7" t="n">
         <v>25.25</v>
       </c>
-      <c r="E40" s="5" t="n">
+      <c r="E40" s="6" t="n">
         <v>48.5</v>
       </c>
       <c r="F40" s="1" t="n">

--- a/donnees/AMU2022.xlsx
+++ b/donnees/AMU2022.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Porcs-abattoir</t>
   </si>
   <si>
-    <t xml:space="preserve">Bovins-abattoir</t>
+    <t xml:space="preserve">Bovin-abattoir</t>
   </si>
   <si>
     <t xml:space="preserve">Volailles-abattoir</t>
@@ -295,7 +295,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -332,7 +332,7 @@
       <c r="C2" s="1" t="n">
         <v>0.254</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>38.64</v>
       </c>
       <c r="E2" s="1" t="n">
@@ -417,7 +417,7 @@
       <c r="C7" s="1" t="n">
         <v>0.283</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>48.75</v>
       </c>
       <c r="E7" s="1" t="n">
